--- a/outputs/fft-o__Oscillospirales.xlsx
+++ b/outputs/fft-o__Oscillospirales.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="f__Lachnospiracea-LSVM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="g__Prevotella-LSVM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__C941-LSVM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="g__RC9-LSVM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__Ruminococcus_E-LSVM" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4404,4 +4408,8388 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Butyricicoccaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-272</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-382</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG515</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.4468296958100884</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-6.364489821501349</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13.5006376435283</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3.63820066096856</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1316136297244257</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.902098520669576</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG212</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.2841523888050457</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-10.49226480014678</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-10.69741543769183</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.662810302538699</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-6.105649394498887</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.6627750204650577</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG062</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.3138972167321017</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.578538476024153</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-11.11469376659574</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-3.986911807433811</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.738385779364682</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1.024352737797104</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG419</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.5781935590810771</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-11.00959430010077</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-17.93065208572919</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-3.604576960611893</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-2.829035520006974</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.4175447174975666</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>hRUG908</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.4600846134367974</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.777168842998474</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-9.398145490151235</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.419001688855501</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.369990457082433</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.7395794125805013</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG459</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4600918294846743</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-10.90948094890333</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-7.324417768521032</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-4.076757088456574</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-6.890371582377792</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.175212941158439</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG577</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5994513116206756</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-18.90575393062317</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-17.02722781209138</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.984660221214319</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-8.091528868026293</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.3490560202912275</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG112</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3980233671077826</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.75440696136991</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-14.81173196666303</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3.971096809081391</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.601941689871671</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3395169629926901</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG431</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.2518978001213669</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.439237684401665</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-5.739541278170405</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-4.408632351221177</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.061001359147028</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.369980372030998</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG446</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.9790551039768606</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-12.66337517811851</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-20.31778489713115</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-6.112822253196661</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-9.126766213325844</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.7140733982901906</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG318</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.3236548379988237</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.352208568482043</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-11.41889465275881</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-4.71273988666908</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.01474744572891819</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.570898665006546</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG838</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.6467481129032479</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-11.62630594284357</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-6.075636412854753</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-5.590673904624694</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-2.719156515163935</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.6286163601450662</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG906</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.5365412838669625</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-7.461109960570726</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-17.72913343748635</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.723032547026538</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-5.520830375579155</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.6165878359871787</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG339</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.4391428624686566</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-3.345205474889102</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-12.72234319365051</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3.762792772354849</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.706295269128596</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.7428445728267554</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG273</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3005433003313676</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-8.41764080124169</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-10.84024849799581</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-5.045621699916919</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-5.99151115387498</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.7275089898204751</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG307</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2395171390258318</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.73187126869042</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-13.59759282391965</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.072225047572476</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-2.11517698076549</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.9919975324766495</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG474</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.7596518438921808</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-10.08909099619719</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-12.64541401297608</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-4.371978458022602</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.920589594924918</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.9494079969094764</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG116</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1645548447596201</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-2.179687973312469</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-7.726748017370521</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-2.278174683920328</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1999786627696485</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.9292470099509401</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG144</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.3647118997485021</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-9.756905058926892</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-11.6770394318113</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-5.368863252790386</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-3.855898427275303</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.5303132536967895</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG423</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.6250301490250697</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.477209115226482</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-15.60203379201165</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-4.360665900751466</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-5.171674411970992</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.4153458719416668</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>hRUG858</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3269308437410227</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-9.000884741408431</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-11.7144323682499</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-3.408717686491077</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.880625923149793</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.642569568607636</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG168</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.3860984897208458</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.862351773642927</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-7.468374524998358</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-4.130762291481393</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.104995975209108</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.7487186728908733</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG106</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1513660963326134</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.2478958240228</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-16.47752102552971</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.694905128915055</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-8.175373320427644</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.261478943457335</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG765</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.162694945686404</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-4.731716238854446</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-6.166861345388014</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-3.650775973578627</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.722901182921103</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.7817553228124205</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG259</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.04579320245059885</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.868975014686969</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-10.75249207750301</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-3.939472368743058</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-4.787923496507523</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.4739539145472274</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG488</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.4746368358420487</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.993108820036831</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-7.055655123205042</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.019705947669746</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.87488864510787</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.5979829744883565</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG085</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1595131408605276</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.865942081654323</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-8.009983747864849</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-4.333411434088268</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-7.505644446121726</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.5700007312687653</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG647</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.5290881830037368</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.403195347401792</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-9.472005575279656</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.128884631145275</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.526380124522499</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.7337580109766534</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG064</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2329848099697999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-6.850286560354314</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-6.489107253591708</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.13900778336664</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.582743138594204</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1.143721572757923</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG022</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1927172202885639</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.695695517678294</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-9.22174369029039</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-4.540727245238019</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.338402672153256</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.440961135342202</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG216</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.7255118701654333</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-15.61472820960872</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-18.83176908123087</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3.372032325149514</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4.845814509233965</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.903103078894306</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>hRUG893</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.09306126725573252</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.884133147021441</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.189735337000672</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-4.01548761183036</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-2.978831463796936</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.9828061338816265</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG200</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.505283284310411</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-14.37605438982431</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-14.15502789172875</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-5.207677478968297</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-6.440435839497469</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.09746430445338786</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG309</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.6062169450916149</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-7.257966314488383</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-7.4869861941994</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-3.608844268844976</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-6.402676200293699</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.3105759835029628</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG550</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3040171173887335</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.532555362344865</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-7.127200915355349</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-2.114466704854752</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-5.720138839760867</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.5272485744321723</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG782</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.2295241425113492</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-5.936362402984972</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-10.65035615152821</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-5.005399869837197</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-7.149604077184651</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.6681701638061468</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG003</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.1178574017201746</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-20.40563520710728</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-9.381869977992016</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-7.706920533731108</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-5.333113832308412</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1.78228446895116</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG535</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3028968349485058</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-10.45842815432704</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-13.94074668958505</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-2.776757869301873</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-5.51324286191352</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.5290830714417856</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG315</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.7298173585873431</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-7.623647979561052</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-10.4534075486025</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-4.029710077762425</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-3.109063627169349</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.7779474531973619</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG108</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.6849795157935331</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-4.031608081582333</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-10.74344607007715</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-2.934239652597131</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.952490904259018</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.3822707301935757</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG541</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.6871164083079663</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-10.60139500535291</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-12.05530635871913</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-2.435354541840177</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.1896637939020142</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.9044493391406313</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG461</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.3428002035243317</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-4.073471773177314</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3.545608614594439</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-2.895831964979446</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-3.695687077633179</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.8822883772046474</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG546</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.6438640660943464</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5.968373546566226</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-13.87813323430042</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-2.29668877908581</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-4.809618096460295</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.6911954545118045</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG195</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.2991541308686436</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-6.748418374506223</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-13.58459970764721</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-3.855810448733969</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-3.832766791870107</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.7307932605001644</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG660</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.5005822086978474</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-9.711821513564786</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.086752060781523</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-5.703753312493565</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-4.555225688018316</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.8700220509836806</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>f__CAG-272</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG280</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.417803553313525</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-14.17498538317675</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-17.72357000404658</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-5.687294990351712</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-6.717779973542129</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.9363078781887318</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG742</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-1.062179421532831</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-7.617683630114755</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-14.47043711430896</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-4.399641612827057</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.8544362043793374</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.6807205893881991</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG457</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.2081053202227329</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-10.17802985606794</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-12.2919575181131</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-4.378766782214388</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-4.565063988201237</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.376337872636481</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG036</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.3429194307505453</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-18.28764745209251</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-11.51728391081664</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-3.865522561230923</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-10.30476777403422</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.05946767017323255</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG046</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.4982430148405346</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-9.830394649069198</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-1.613425846708563</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-2.110040938213107</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-9.574831103946345</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.200670370846433</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG445</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.7589461808289123</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-8.519600182727274</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-8.229704555681415</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-4.154355897724598</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-2.97821370586865</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.852324656352283</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG435</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.3112431518600155</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-8.833794370388286</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-10.20211045522902</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-4.160350629280545</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-8.912333828299625</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.3377854636724135</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG172</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.001765209904241276</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-17.00489127290707</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-17.00520637588619</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-4.095961350892249</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-5.864274660042944</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.7746757357454138</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG589</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-1.005707798070376</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-3.368997875669365</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-8.129259737216126</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-1.418774149049054</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.292304729109074</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.7564753322470584</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG169</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.225566479475821</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-12.84435879417282</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-15.1171822731034</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-4.044224195655357</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-3.948665019123794</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.473440673200464</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG030</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.7095627476192602</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-8.601383942688628</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-12.97956412621281</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-4.365370285112976</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.534980979637222</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.3042688527537169</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG301</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.2776529933704384</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-4.151649567753397</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3.916215562211293</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-5.330536788205409</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.25606200972699</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.048254789052659</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>hRUG878</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.2468309041257202</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-11.47868910983982</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-8.527053847894873</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-2.817454228609144</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-7.493932295300683</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1.114942643403366</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>RUG037</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1146133183780483</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-7.884433179919822</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-11.29762855976406</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-3.456288005840187</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-3.683123892272302</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1.063463499339022</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>RUG788</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.3893446332697278</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-11.68385205420574</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-13.91242997714349</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-5.790544054920753</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-5.366315285728044</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.5550817265143039</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>RUG176</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-0.706463470481273</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-9.034568648735002</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-9.532945276036846</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-2.925219776541129</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-3.386930557473689</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-0.342064729434143</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RUG047</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.6856005037765659</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-9.579612663270913</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-11.563632148136</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-3.477433361087808</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.3166707638581218</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.2495508452140472</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>RUG405</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.4330609379062095</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-8.441317522217034</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-12.68382818676598</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-3.321027813452038</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-5.851394851614886</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.2438703164074897</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>hRUG905</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.1668414790426138</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-8.201252770809999</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-15.91887905880745</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-3.183782294255311</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.806928229841367</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.4077443010607163</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>RUG697</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.3080968984692</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-8.573340823729177</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-6.42444176836264</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-4.896275158981872</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-2.674635254482402</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.8621631153916794</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RUG562</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-0.5752330768518639</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-10.58738336192438</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-15.08823608856124</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-4.544335591945487</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-4.840565784340395</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.8001355169367796</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>RUG292</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-1.450379533469543</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-12.84381417191273</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-14.46133188148372</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-2.812141296122656</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-5.457770813780584</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.3040416592892186</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>RUG070</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.292719265624034</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.8267211706376741</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-4.849298266800553</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-3.22010281001776</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-2.330107043175643</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.8178592390809725</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>f__Butyricicoccaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>RUG473</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.5905998894230973</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-4.132775817320805</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-11.09445387116113</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-4.842812176851452</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-2.00475861160069</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.4028263351445381</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RUG302</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.3110797757091103</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-10.01985492373539</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-12.32964515321422</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-2.684758938206217</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-5.79737382501949</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-0.7499905398703548</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>RUG233</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-1.003708928260412</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-14.98432548991627</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-15.32322775343421</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-4.960042681585023</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-4.241628233760695</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.6529549211740757</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>RUG232</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.02134188371223771</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-2.04141172051088</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-5.935892421204806</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-2.960991351816626</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.06123664841935209</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.180135931425299</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>RUG143</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.05633977229365869</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-5.135318942214141</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-5.891002720876377</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-4.066461030100649</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-1.69232227805306</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1.136035648689018</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RUG219</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-0.3782789418853063</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-5.901542650419041</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-7.958694808295332</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-2.817560202251947</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-2.867041686335897</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.6768226041411171</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>RUG139</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-0.3710004506862933</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-8.516523849289113</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-6.725180588234651</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-3.641666621281879</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-2.546319148306476</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.7714068853816742</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>RUG086</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.2844134152628841</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-10.48354742466604</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-10.70819298354141</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-5.355433104214443</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-5.788808368825705</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.7922551609719334</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RUG582</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-1.130477528828442</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-13.12734380921124</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-19.1548113873778</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-4.709188972203124</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-6.37140317615522</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-0.9004273678518794</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>RUG685</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-0.3988757825513528</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-6.782233708120121</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-10.02194741340502</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-4.314390401534133</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-4.698495735446641</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.6486660108240117</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RUG759</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-0.7465270166758903</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-7.965871307296506</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-9.72664711570402</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-5.510903474637625</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.4786193781459135</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1.464604449343205</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>RUG383</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-0.6946305501356211</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-10.8167036182493</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-14.48985918913112</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-5.362613042567388</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-12.46872589850885</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.1472981047152104</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>RUG056</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.3852300222845338</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-15.70530033808898</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-18.55791803730943</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-4.707725302989541</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-5.17007551211614</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-0.8816509187443056</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RUG124</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.5903221808166368</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-5.604817331996493</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-6.016124786416778</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-2.386563676976032</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-4.941341551739661</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-0.5985563253531934</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>RUG160</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.2951707454269417</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-4.131762729729481</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-9.765866688461875</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-4.135156786486616</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-3.644619057324503</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.6242371196021939</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RUG209</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-0.2665756600213403</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-8.695905940863341</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-10.74881043044993</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-3.877849778172742</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-8.11876446086408</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.3595253649564017</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>RUG812</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-0.5276432976349247</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-11.53384734234363</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-14.80708759395462</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-4.076283564210234</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-8.249632288571899</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-0.7410814264079809</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>RUG602</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-0.7003191703067394</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-11.87558862891908</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-15.37785922068127</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-6.91326569424186</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-7.774993865769865</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.7870466016602098</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RUG751</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.1025928253675423</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-12.25638878075809</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-9.449475602437218</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-3.544610411610379</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-5.684189901536115</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.76267552379309</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>RUG101</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.4460046828530588</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-11.96630657921293</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-13.1379969683689</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-4.463963986095286</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-3.816369220074059</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.2896924110766742</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RUG693</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.08785729529952496</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-12.38436817834231</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-10.83552498076179</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-3.567166848296535</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-5.601166674411846</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.5474916940167228</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>RUG107</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-1.259963733508031</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-11.19993194015509</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-14.43763053218708</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-4.875074579928305</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-7.103148383293082</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0213473667199257</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>RUG063</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.3091259688678442</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-2.560668594094753</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-10.32393718252835</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1.681287550733655</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-2.0477413751131</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.4396982768798785</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RUG178</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.4861410641769376</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-13.51395510771538</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-12.5018002455834</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-4.977975997751405</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-5.759751670715145</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.7862410364700871</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>RUG414</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.7665088885364322</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-12.27849023597879</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-10.69642651428922</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-4.978121182253922</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-3.270352775214756</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-0.4335500609975795</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RUG058</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.7129284721765515</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-10.09701062897116</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-13.37947268231924</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-4.340052326931537</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-10.49660817744787</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.1936182935576328</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>RUG771</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.2413624704206015</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-6.478784439689631</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-4.140069955135309</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-4.646306745403658</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.6073321726803873</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1.700230697335497</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>RUG355</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.0988012151473876</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-9.081289688830703</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-12.2433466618208</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-3.744663395720168</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-3.01648537278947</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.8283688958840216</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RUG827</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-1.089160087833895</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-16.32401873063191</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-24.98210181171288</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-8.66571609397686</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-15.44223066213145</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.7606201719586885</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>RUG843</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.5495114474139435</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-11.14300616375488</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-21.61019965429514</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-7.084134456882251</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-12.53406572419513</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.5332970092656332</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RUG126</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.7014596886281931</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-8.524961442815576</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-8.982020693425799</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-3.434037609994874</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1875075369609599</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.8444580483602521</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>RUG451</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.6599298548069013</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-11.19898524401524</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-20.60257464263235</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-3.684253192442978</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-9.296961796358644</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.253756656258516</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>RUG536</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.09481982669789607</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-8.712264234341166</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-10.69571688997095</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-3.822853686253556</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-6.029088614071849</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.4640510911362986</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RUG766</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.06753249819851734</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-8.93459648157986</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-7.25064132766881</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-4.122717871279876</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-3.906391024321462</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.7332114893662829</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>RUG059</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-0.4183858032416335</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-6.127908848712183</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-5.171942034414133</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-3.781065515558178</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.541701051105319</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.9812526341184874</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RUG753</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.3917205932046078</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-7.239585351595585</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-4.961765633633195</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-5.071175608058638</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1.514203300440031</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1.062999252473141</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>RUG744</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.002649745787115812</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-5.003917028980709</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-10.5939522165778</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-3.882583349067672</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-7.449932308460262</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.7363775375027581</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>RUG071</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.252520726561372</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-9.148923412386917</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-9.485382493882806</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-4.746977091716405</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-2.89214451053557</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.977248784587458</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RUG295</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.6677032149308364</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-4.459996388978355</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-7.516665763546098</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-2.431218951368734</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.6976782359483713</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1.119645890009065</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>RUG785</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.6167036635942676</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-8.204574238518894</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-12.84159346343469</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.819350165048641</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.5238979502908113</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1.318958631485821</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>hRUG879</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.1134701936682107</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-6.129410053318705</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-8.085532183732498</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-4.517963211076204</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-1.209639258225972</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.6963051875871931</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>RUG249</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.08956969550909472</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-6.845984734819023</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-9.887366155911334</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-4.392846095041365</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.3135622983396032</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.136017116614143</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>RUG668</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.3611301512063289</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-9.15636967960366</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-8.001361298298827</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.768573575135065</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-2.325165989496144</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.7772935967262211</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RUG430</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.6705836598618672</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-9.933069863377256</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-4.566333185093607</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-6.479387623567624</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.071461199640945</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.9762203417097228</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>RUG424</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.7939780038603172</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-8.947118578882858</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-11.86234168829663</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-4.440219228047551</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-3.555452873298883</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.2846286477188912</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RUG224</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.586652356595658</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-7.461932994279688</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-12.88669851743975</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-3.138452110403285</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-2.060018692214042</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.8085070364123178</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>RUG443</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.6048360495561358</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-14.93752220258159</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-14.10783601216392</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-7.687316981703561</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-6.49422469362567</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.3365727740427772</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>RUG136</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.3504929967380677</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-7.307111968620712</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-11.18710038140168</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-5.108884990248671</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.1457379372602876</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.929008149261909</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RUG599</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.6226749064784989</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-9.142069744987708</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-5.469211618952365</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-4.85821983166366</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-1.08785689560167</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.7298642716545947</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>hRUG913</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.2196915617393577</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-7.958304207207314</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-5.020141651089109</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-5.411085087961109</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-6.177596930129814</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1.106142148506901</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RUG533</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1526172871094016</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-8.463284307442914</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-1.710158227695955</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-4.848839109579925</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-6.43045722843972</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1.114585157867676</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>RUG413</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-1.093285339742768</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-8.50084880028284</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-14.52858070298186</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-2.672041843766344</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-7.122496300974796</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.4397235695609549</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>RUG839</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.2754776443318501</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-4.461156979954447</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-5.472124707747659</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-3.731929049371104</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-2.610944716975532</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1.455351227458664</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RUG403</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.9026486707718976</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-10.10861774126683</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-11.19328822516037</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-4.922162100447164</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.64313978926995</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1.035896752752913</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>RUG137</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-1.231194422201717</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-16.32753375343393</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-17.99105365223899</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-5.260435657643251</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-2.447762640976554</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.557048677766893</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RUG504</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-0.5360183547944251</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-6.056770418203974</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-11.86464254085362</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.834807060615727</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-2.648686523298869</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.5044836568874373</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>RUG571</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.6617831704817949</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-5.220366349488777</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-16.00154584917831</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-2.591599017944061</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-6.969972684601465</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.7406860044791984</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>RUG069</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.05984839952411767</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-5.484356961145236</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-7.115850273897895</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-4.494482896022619</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-1.953148421651663</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.7830478805134689</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RUG073</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-0.4186951675478661</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-5.248965972612587</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-8.872733622104548</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-3.025197047773859</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-2.143661982055041</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1.196182608394814</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Butyricicoccaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-272</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-382</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.6696262670109741</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-11.4450838440188</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13.69960601723722</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-6.190154521382996</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-7.554467779040488</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.6802872566227529</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1391459688778853</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9.934368232214018</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-10.12718961038275</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-5.334115611710999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-7.809929479181697</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.823235568912532</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.951414119222976</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-13.8002047227257</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-16.94746043516978</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-7.579698468060879</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-13.46754471075316</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.3920565393219305</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2683894132348879</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.879252999099672</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-7.438222699904842</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4.934926971115193</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1638278606782483</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1.04436246827002</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1047159085663747</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.091405961958742</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-9.568142336108567</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-5.523504140583169</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-6.098261901902577</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1.313481844376305</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.4526452871080155</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-22.24566785502533</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-17.65002501988435</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-5.888970677885421</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-11.66349757348283</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.5163907806816919</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.259838519037442</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.99332108819837</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-16.25443943885831</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-6.112812548958353</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-9.621073394366908</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.09127835340668028</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.08600158001989497</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.03865570933734</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-9.543299645072533</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3.433753727736195</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-5.283592733751258</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.6155771444510193</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.776782476915704</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-15.79872325540344</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-16.21788487726936</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-4.467415344785831</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-11.77314310850655</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.1253169462648481</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8048387569834996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-11.27778621107784</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-12.21424731849797</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-5.056849421127234</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-6.249221740797537</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.4634397785257347</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.063200923456566</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-7.223752218726057</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-9.412976293232465</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-5.8698147489642</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.496469471847298</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.5971291804532398</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.293445039156762</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-10.29676402076311</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-17.0960824127136</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-8.427520716303576</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-17.02881289012713</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3717583521035323</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.535580910705172</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-20.36008572206622</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-22.81191160390449</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-8.980326577175255</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-21.39417345686252</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.04344329795947285</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.8790091055377359</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-9.926031781962278</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-18.04932512692067</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-7.129260389772876</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-7.844179452182699</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.6113269494436593</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.6815305885606454</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-8.423411891508437</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-9.646386489696354</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-4.676654524288112</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-5.177877826977322</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.54584416983583</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.131274092268764</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-9.228328250362253</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-13.31656176210415</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.594218805209627</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-15.11797879696643</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1590019368678344</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.9362483727968615</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-11.56034143470361</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-12.4042878972271</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-5.883437758838556</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-4.291499565741379</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1745693872500242</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.7026110597255008</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-13.90950626002796</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-15.07890874509283</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-6.284082155301936</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-6.918180224291119</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.521363911952086</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.8585818340678472</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-12.10011965922732</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-12.20438838879319</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-6.719235133606928</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-6.491052141632713</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.1811134489183401</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.7308688733805156</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-9.410893153702611</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-8.361715487348246</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-5.441521202414143</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.2745682292129294</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-1.231990699823992</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.381530532279277</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-8.784090432347442</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-16.34745611342149</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-6.022813612654381</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-8.643727909439688</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2528386371892613</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.402479811333302</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-12.13894921777694</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-13.15435883130815</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-5.876173075955112</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5.666312728059586</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.03833107604235226</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.3197343965163897</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.86685970215543</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-13.7734757770473</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-5.452023954990021</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-12.06047376300456</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.2979951185224075</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.6001036531351963</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-7.027841067528708</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-11.51044461526342</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.086913458929037</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4509735598307976</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.8222346243216511</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4761964232168648</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-15.49744170067417</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-12.7100263178338</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-6.465383575786308</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-6.986538584821566</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1.083752702356702</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.4087846490597691</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.578781190034743</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-11.58217029432216</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-6.712446726491719</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.403210124259283</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.818351390909409</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.7603126869006905</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-8.66744607867852</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-12.86446312078581</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-5.410631706374561</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-6.75132461613485</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.3045292721934841</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.012694351062868</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-9.742671133491724</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-7.231666923441799</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-6.791338458608173</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.392876545076406</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.1306878740471897</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.7005445229521756</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-13.66016907006723</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-10.02760070702815</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-4.881274272094501</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-15.95052731707085</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.002525302725580597</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.4224993410553</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.395731290474267</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-10.0724403835561</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-5.570559699542886</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.108313659201197</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.294744882384817</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.5251249976798652</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-7.469751872962619</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-7.47507795253314</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-7.150091258525546</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.03178042940873853</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.9328898985971656</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.902218718362901</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-8.349296027462813</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-10.8013191073086</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-8.07533438521307</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-6.08582778012816</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.5543185509745308</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.7400530847024859</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-13.11174044119966</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-18.52611832584324</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-6.031007074370211</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-17.88585905786164</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.1672802665778003</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.366497905090448</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-19.340181829936</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-13.40866951228771</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-5.604624300074797</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-4.446676326910612</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.7966252514919986</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.3435050228511864</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-18.25506014280869</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-16.53826633430289</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-5.08289661257006</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-5.599945768591277</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.7392386311906034</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Butyricicoccaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-272</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-382</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG722</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.2677641423518151</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-14.09811140527275</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-16.52620615219567</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-6.327528888116815</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-5.139847728413323</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.133563470549669</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG826</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.681114755341429</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-13.28855569038035</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-18.73189389784079</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-9.739687952685502</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-3.051808221133143</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.5027307162268549</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG487</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.7669748638039665</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-14.02742786309827</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-14.66279170943235</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-10.16622631531008</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.313101627285599</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.8608091518709463</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG478</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.6118692999238753</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-18.10594198717541</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-16.85363199556073</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-9.282408653706227</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-3.549224218822078</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.7466633953409499</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG352</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.7308919395511649</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.023305264196042</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-14.61023959078667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.101470234185689</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.216576895812904</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.6188397519171166</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG629</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.8430018004775264</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-15.45045063930852</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-17.84875645735158</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-7.80561003897265</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-3.479241411537135</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.2364113695606099</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG523</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.7097196184439979</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-10.4719995209844</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-17.25640208522135</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-9.952258511123388</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-3.590814480314704</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.6070613750499634</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG510</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1648603670717102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-12.66867934109144</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-7.196669653751978</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-5.250434245038019</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.679998041363157</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.5959974778587832</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG717</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3158909733527003</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-5.504013335799345</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-10.48276463317158</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-6.505717257762326</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-2.434693340982463</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.6064046013284741</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG679</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.7450673268205797</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.504075999371913</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-16.56957908139716</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-3.788452130512622</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.734763963292894</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.9690309158597422</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG667</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.6570845590314649</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-3.093999589705978</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-12.60285778267829</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-7.463868036461047</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.791606138826451</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.153246454089504</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG645</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.154607450061761</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8.170920518867561</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-13.80650247426149</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-4.387499321285934</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-6.509541300880506</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.2325513203025697</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.7751754224680344</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.154967121614698</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-13.47233730705155</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-6.571404845997502</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.871866258139424</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.4092050665721472</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG331</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.017161571688938</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.212650317456516</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-18.83129950616005</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-7.329965924841077</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-6.311802508647661</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.04847469280992579</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG579</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.171344989356201</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-6.233391591785939</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-12.56739861625616</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-4.107244690836246</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-3.249384953028197</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.3419125835789906</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG193</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1.893020158021068</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-13.39043347278894</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-26.63238081231372</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-4.709895418981678</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.974730155628299</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.5959384511411254</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG583</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.090262808087234</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-6.728182161587129</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-13.5445267891923</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-3.1214899463362</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-2.654245415203836</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02816843804871312</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG564</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.3921639469997748</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-8.91219372046789</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-5.863331646201611</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-5.067590886123414</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.129324832525539</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.09233924214151253</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG489</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.5730572817873592</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-3.35193384573622</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-13.19154678290687</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-2.755877216472485</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.629517710875166</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.795356020329289</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG345</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.881672986649106</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.893547906799257</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.734984804747503</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-6.477688772696131</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.76432391438674</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.9548665119770072</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG421</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.7322424633355773</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-11.90327511352829</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-11.86174057862637</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-8.803680506503348</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.4585624803010002</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.4520525979377999</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG392</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.6436978183999954</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-6.995253151377375</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-14.63395154340345</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-4.897515947942171</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.783246635095085</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.429547153052395</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG250</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.9411194262010808</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.69214873422241</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-22.27367327412912</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-8.120628330766973</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4.947281302985185</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.5718639980723651</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG790</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.6767162577823391</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.246231952215753</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-8.200244508037819</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-3.280207929279693</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.493753637921945</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.4415091093341367</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG470</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.014130725215635</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.137871026692028</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-17.83574748546719</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4.461026243957588</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.120911278707425</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.9808501352973734</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG253</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.92484786146373</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-20.37768414749193</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-25.69969523844198</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-4.904573421218863</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.782049203724786</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.06343612156677028</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG590</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.9685099746354718</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-17.07955274881426</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-14.57493908512805</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-11.43305385859899</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-7.114925506938085</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2168651151832342</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG784</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.7140856811521036</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-7.497856717336307</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-12.73367999903514</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-6.570114696793799</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9716139337618982</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.8311962515439044</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG818</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.9742186209701641</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.016185575019456</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-20.69141101678451</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-5.562317772721684</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.667007988532315</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.8799810498263789</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG257</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.120204763354637</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.009405552214451688</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-7.514762849957804</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.7080144232643</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.02669912369860436</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.2964169784407312</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG720</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.1165461036344663</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-10.6129809453683</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-16.7328873372326</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-10.38852887644658</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-3.463966288007622</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.154517619433554</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG634</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.9233153571154757</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-8.598908061508446</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-15.19811004183519</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-8.634717743709182</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-6.927130639309153</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.5653383611687375</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG205</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5019768196665684</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-11.70905558238552</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-19.1186621395009</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-4.527873707983936</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-7.522203449473374</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.3296644898984907</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG481</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.002755440690983615</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-8.73881027146378</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-7.952646771047861</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-5.025673695892835</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-7.158047576373538</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.3801701276203493</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG615</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.9239397858848776</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-15.15063082757049</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-16.15539332231467</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-8.244346139710295</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-1.674830366614264</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.1230094517434103</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG173</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.4460316675831808</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-7.079037462549891</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-18.27932967242624</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-7.971234171639984</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-7.159681006879081</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.8287164481648884</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG142</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.4702528284371739</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-9.089021492974977</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-7.712642718862442</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-5.683358547162272</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-4.546779498569552</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.1221965105898647</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>hRUG909</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3019630191255687</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-3.921566215084224</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-13.90444962612881</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-4.272383596102983</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.2047869224040872</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.4189270997109651</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG395</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.91303203555088</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-10.05926486158303</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-13.93453908541964</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-7.56561773752611</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.3201687076592166</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.9731458212769654</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG406</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.9268172782697636</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-9.907649584198358</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-10.63492533902601</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-8.993785182668914</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5137898392635772</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.3566803629250914</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG387</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.9903365875078215</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-13.76965943740589</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-22.20418667260837</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-3.930897078551459</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.538695668469876</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.7859116510892225</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG553</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.6718736607135526</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-13.72596828196594</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-18.71928593722706</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-6.516788953516696</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-8.679288549350254</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.1142818951861168</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>hRUG873</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.1862148918165011</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5.943250665387755</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-6.605294725148057</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-4.662389601020902</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-1.66050465600112</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.440897640101623</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG568</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.3465828551476541</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-8.288206794302674</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-15.41053072203714</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-5.541356853024681</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-5.001826840895081</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.3294816706173551</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG707</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.3870568408356709</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-10.17677857238131</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-15.13698549865965</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-5.432125815670035</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-2.453567371840238</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.009659123737565499</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG528</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.754207113282918</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-6.778807889420822</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-11.62037932296074</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-6.954259906894522</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-9.589332207286843</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.03194326565219333</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG603</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.04984502809844904</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-5.510325069118958</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-8.178190987004934</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-3.688151338655938</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8204834206186499</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.163192882114922</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG436</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3714597465338663</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-5.242698969303627</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8.014082013738026</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-4.04378890571264</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-2.880550895273989</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1.011542659919225</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG773</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.6679297997766073</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-6.069553031459713</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-11.21522118044338</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-8.201950568158985</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9867910499536462</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.4941827949725199</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG619</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-1.153568973567078</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-9.830807928546553</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-11.99682643151844</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-6.744708765933543</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-1.157650155893477</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.7731380227079976</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG386</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.09397327060663771</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-12.72222470853775</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-12.03744742586663</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-6.119011695811133</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-3.737558273582034</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.2854020407791509</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG544</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-1.429307335783555</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-8.259275250762636</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-21.97768489302381</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-3.926407330157323</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.598612160467027</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.002918784565695</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Butyricicoccaceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-272</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f__CAG-382</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG464</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7414238793880248</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-14.15871671857044</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-23.15701482118669</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.378651798001409</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-7.63576969376388</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.4885752765043905</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG682</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6736867333871371</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-16.69954736839118</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-20.06052109816567</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-7.747374386565418</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-11.41313118600244</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.7443840674731487</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG299</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7372714680205964</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-14.42436155534444</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-21.53608927628583</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-8.903399170546292</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-10.87911835210199</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1.626867469443627</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG846</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8968826051127363</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.503590663172106</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-8.313999711611997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-6.063173189887161</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-11.6680169981861</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1.821428272232833</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG271</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.3501540501353136</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-18.08478775823122</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-14.02512827616541</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-8.754732303803825</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-12.13206026756589</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2.108118069492793</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG196</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7411611452444622</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-14.50750490839944</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-16.03898156894034</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.480883327147641</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-9.139154392858913</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1.575875295067379</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9675391768844844</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.149216630297326</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.318166538575134</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-9.76397464715666</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-14.88089771434589</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.705431797852854</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG366</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.42093480909146</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-21.71142007750742</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-16.01579778788474</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-3.663997270175448</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-14.21303880477024</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1.500134793140634</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG008</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.036312750818699</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-37.24225489645716</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-22.38664832102235</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-4.800003969732423</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-14.71296103280308</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1.323465916082265</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG543</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1.317427179557139</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-13.64229389714782</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-16.51462235959655</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-7.460970763891973</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-15.03701335422178</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3.017018672284036</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG566</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6433505208911401</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-16.84039610556468</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-14.58391722475504</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-7.420944723590861</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-12.79272106554321</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.5392147984944612</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG090</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.417520532093931</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.275483198182211</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-12.54867781787544</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-7.867925996952214</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-12.10148779180798</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.709534628283126</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG665</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.6350266119500133</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-18.20969329204351</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-18.87030403361469</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-10.99691370453732</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-11.38875225035415</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2.697874279696165</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG189</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.394529318194351</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-13.07863657247459</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-9.693603933541183</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-6.253382192287916</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-10.0499637707956</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1.719587126033417</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG081</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.540203207328661</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-12.7902263958704</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-16.45522546068515</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-5.731964039162789</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-7.727747672991373</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1.834029995457998</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG845</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8544288124137777</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-10.99388955188252</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-5.155656498437101</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-8.644805171273298</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-8.72706084347233</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2.10316493673233</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG341</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8859555692838911</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-8.926384558398821</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-10.39990317563134</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-8.727533034501523</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-11.32138520139158</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2.790912388696829</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG365</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7095465045474602</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-16.41782461541015</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-16.76669562863484</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-8.463340024735906</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-8.430323530767637</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2.519530923199985</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG605</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8880092302396517</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-12.85783812281965</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2.775812410452053</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-11.20348920809928</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-14.14157552126625</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1.74448388374747</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG794</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6744858030042256</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-15.85535811813194</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-15.72845483113803</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-7.515749713456063</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-6.124289747581801</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.893175412175243</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG230</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1070631129622021</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-14.00219135932841</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-12.67294131624193</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-8.695647198758783</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-8.222584540408144</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.017332343379148</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG041</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.225039480176086</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.011014464934232</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.287399320732606</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-7.01035074096729</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-9.846293647096838</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1.945103959303368</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>RUG272</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.090924826193419</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-16.71442803316477</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-12.95756131565407</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-6.186241001361191</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-8.902539927086986</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.442388659042301</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG026</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1.138488141053913</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-18.92824787868083</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-11.43707391119835</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-6.503479860547894</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-14.44689266672171</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.601901349977612</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RUG333</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.3762272698108796</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-16.09931717320415</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-13.82770953000724</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4.594208069614384</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-12.86330059958339</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.4286818711311783</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RUG641</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.607265998386729</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.644609057311523</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-15.72259215902615</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-9.073001085726251</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-13.77010989369889</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.388288756852094</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RUG449</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.6637499211131964</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.614384179596039</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.824387333396044</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-8.399281580835783</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-9.179767017295671</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.12462172889919</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RUG637</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01027090252324758</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.841671860572</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-11.86447146351469</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-8.340144670933647</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-14.62980586383956</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.08825568195263</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RUG217</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.483810667592555</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-12.26096612695932</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-13.27917867672212</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-6.332540235612211</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-16.88837776893173</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.362515892165939</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RUG290</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.016474042422317</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-14.54460837798605</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-5.23161214256814</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-8.795522769980643</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-14.86162073765486</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.131963939195578</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RUG368</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7938014812288466</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-11.06984631175262</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-17.10003487206236</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-6.75691518246452</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-15.44708994753566</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.125895244378418</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>RUG835</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.6105080393898958</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-11.15047638315152</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.887855694078456</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-9.825083842346952</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-11.77027901557408</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-2.600252361653215</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RUG202</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.040883435366568</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-17.6934402238582</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-23.94516904291575</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-9.358843309991888</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-11.30657815984606</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.8869821917587712</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RUG074</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.133767401136843</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-27.83002940128628</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-9.252767463328803</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-5.051179166343243</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-5.565679949483603</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1.262531615021717</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>RUG105</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1.232530303086391</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.157894548475754</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-5.260456014322491</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-11.87320955557679</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-11.12849052763815</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1.529945648907431</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>RUG726</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.645672202043886</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-8.693852542520888</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-16.16278444647601</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3.410298679813144</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-8.35331365517067</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.9502390234231779</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>RUG110</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3902713947697037</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-17.81931145924747</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-18.47156208478048</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3.744290484906859</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-13.63074321683718</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.6080362975136907</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RUG468</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5409621382023315</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-13.77075000839428</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-10.45693303580057</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-8.135812800339078</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-14.25737366944206</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2.035406426355869</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RUG203</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.7117908157522924</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-14.59348445394392</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-16.41414526680439</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-6.808828998188908</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-11.24149991750451</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.5124225285374128</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RUG581</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9739013042829269</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-11.21868151634166</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-10.48458328224989</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-10.0011489447741</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-5.996079920076631</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1.765329997373614</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RUG651</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.115014277416285</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-13.80030266143556</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-20.64525998848072</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-7.970940748812013</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-7.257801848635108</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1.282205768235879</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RUG527</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.436351819732926</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-22.3583811541577</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-23.09395131896594</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-6.292072006673958</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-10.94501976517814</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-1.278853790819104</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RUG277</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.7176825577289917</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-11.53299478953512</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-15.17372755544237</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-8.24527450031564</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-15.51813161716621</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-2.317377431326427</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RUG447</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.11670437321618</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-19.38271808649861</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-22.15455725076114</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-6.475232956158054</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-13.03955010997645</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-1.632694588313353</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RUG109</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8337040667462017</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-14.92550441538624</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-14.41991941969726</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-3.761412422004493</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-9.396475161172615</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.6739911656786248</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RUG155</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.7139572726457021</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-12.42322774906656</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-14.12213399200855</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-9.706433618024048</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-6.828733859342086</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-2.365752867565133</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RUG218</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1.259639502416012</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-15.32533591567226</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-19.59976645737662</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-9.304031196638284</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-13.03679159562189</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-2.052323621806594</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RUG718</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3661859617743848</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-13.08431688720933</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-12.42303013153819</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-4.181192739584932</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-7.270750213863945</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6339805394279047</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RUG516</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.007314914266400227</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-11.8587925630885</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-21.11596276174256</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-4.701836094090617</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-3.449462271066266</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1.238204839542828</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RUG426</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3477080769272395</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-14.70064702338934</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-11.07714025539347</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-7.392043902665253</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-11.34689451633949</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-2.556926067167552</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RUG270</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1.198624614406134</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-15.97982217136634</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-16.01842976869292</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-9.255515895559443</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-13.89602934952923</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-2.063412551984198</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>RUG834</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.7667049699167416</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-9.492157892813564</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-17.55829270637452</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-8.273285723036219</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-9.066461849114232</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.138825116150328</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>RUG370</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.6351474078468864</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-12.17659938731893</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-3.030001867078052</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-7.120554310795403</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-10.99481422762999</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.9558175582192193</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RUG522</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.447618996162567</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-27.53092408911144</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-24.51530698536289</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-7.095385760360814</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-12.43179492247721</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.290811672870005</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>RUG135</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1.092522392378953</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-6.861637245046007</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-5.399907580336891</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-8.622730932124652</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-13.19514197418152</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-2.510410646832401</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>RUG509</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.094254474371835</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-9.980281440163946</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-10.28001379133003</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-9.966614434111223</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-9.026581497935627</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-2.662531761738202</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>RUG385</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3110994752079899</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-18.36154977518367</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-14.73053756543883</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-9.76755129140226</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-17.06768456342305</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-3.100071633961685</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RUG394</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1.253467392717249</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-26.4245637650591</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-24.66123258191795</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.939535864922598</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-17.30473208992327</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1.422097492407244</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/fft-o__Oscillospirales.xlsx
+++ b/outputs/fft-o__Oscillospirales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F627B79-9AFA-8E4B-8049-BE820275C642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36E3B8C-DD2B-6A48-A5EC-1B7D73A17204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="g__Prevotella-LSVM-1" sheetId="8" r:id="rId8"/>
     <sheet name="g__C941-LSVM-1" sheetId="9" r:id="rId9"/>
     <sheet name="g__RC9-LSVM-1" sheetId="10" r:id="rId10"/>
-    <sheet name="statistics" sheetId="11" r:id="rId11"/>
+    <sheet name="statistics-1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/outputs/fft-o__Oscillospirales.xlsx
+++ b/outputs/fft-o__Oscillospirales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B391DD8-BDB0-3748-BE03-AD7C68E8A1C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681B156A-E495-1B4E-B891-4DC5B1371222}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="600" windowWidth="28800" windowHeight="15880" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,17 @@
     <sheet name="f__CAG-382-b" sheetId="12" r:id="rId12"/>
     <sheet name="f__Ruminococcaceae-b" sheetId="13" r:id="rId13"/>
     <sheet name="g__Ruminococcus_E-t" sheetId="14" r:id="rId14"/>
-    <sheet name="f__Lachnospiracea-t" sheetId="15" r:id="rId15"/>
+    <sheet name="f__Lachnospiraceae-t" sheetId="15" r:id="rId15"/>
     <sheet name="g__Prevotella-t" sheetId="16" r:id="rId16"/>
     <sheet name="g__C941-t" sheetId="17" r:id="rId17"/>
     <sheet name="g__RC9-t" sheetId="18" r:id="rId18"/>
-    <sheet name="g__CAG-791-t" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="704">
   <si>
     <t>f__Acutalibacteraceae</t>
   </si>
@@ -22154,1106 +22153,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2">
-        <v>0.6528129269188242</v>
-      </c>
-      <c r="C2">
-        <v>4.0924313269491332E-4</v>
-      </c>
-      <c r="D2">
-        <v>1.687834880472206E-4</v>
-      </c>
-      <c r="E2">
-        <v>6.0941466850486937E-5</v>
-      </c>
-      <c r="F2">
-        <v>3.9460408600952091E-4</v>
-      </c>
-      <c r="G2">
-        <v>0.34615350090757391</v>
-      </c>
-      <c r="H2">
-        <v>0.6528129269188242</v>
-      </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3">
-        <v>0.50865742842359996</v>
-      </c>
-      <c r="C3">
-        <v>1.285802888176385E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.2083239339197219E-4</v>
-      </c>
-      <c r="E3">
-        <v>1.2788108164152771E-2</v>
-      </c>
-      <c r="F3">
-        <v>2.889850959820443E-3</v>
-      </c>
-      <c r="G3">
-        <v>0.46268575117727101</v>
-      </c>
-      <c r="H3">
-        <v>0.50865742842359996</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
-        <v>0.82446459983033848</v>
-      </c>
-      <c r="C4">
-        <v>1.059155427032378E-3</v>
-      </c>
-      <c r="D4">
-        <v>2.460825532482701E-3</v>
-      </c>
-      <c r="E4">
-        <v>1.0882273439018571E-3</v>
-      </c>
-      <c r="F4">
-        <v>1.5290540731895061E-3</v>
-      </c>
-      <c r="G4">
-        <v>0.16939813779305499</v>
-      </c>
-      <c r="H4">
-        <v>0.82446459983033848</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5">
-        <v>0.24028204329191119</v>
-      </c>
-      <c r="C5">
-        <v>1.8164888452018489E-5</v>
-      </c>
-      <c r="D5">
-        <v>8.3306389255857656E-3</v>
-      </c>
-      <c r="E5">
-        <v>5.5281309962742315E-4</v>
-      </c>
-      <c r="F5">
-        <v>5.1152503711675533E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.69966383608274807</v>
-      </c>
-      <c r="H5">
-        <v>0.69966383608274807</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6">
-        <v>0.14769335007214901</v>
-      </c>
-      <c r="C6">
-        <v>1.4659766542851349E-5</v>
-      </c>
-      <c r="D6">
-        <v>8.7770194255638642E-5</v>
-      </c>
-      <c r="E6">
-        <v>1.8219094749791369E-4</v>
-      </c>
-      <c r="F6">
-        <v>7.7944114299593049E-5</v>
-      </c>
-      <c r="G6">
-        <v>0.85194408490525508</v>
-      </c>
-      <c r="H6">
-        <v>0.85194408490525508</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7">
-        <v>0.59825161875392963</v>
-      </c>
-      <c r="C7">
-        <v>1.2935533909483659E-2</v>
-      </c>
-      <c r="D7">
-        <v>3.9565690296555087E-2</v>
-      </c>
-      <c r="E7">
-        <v>7.7284880856323072E-4</v>
-      </c>
-      <c r="F7">
-        <v>4.897614588742085E-4</v>
-      </c>
-      <c r="G7">
-        <v>0.34798454677259399</v>
-      </c>
-      <c r="H7">
-        <v>0.59825161875392963</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8">
-        <v>0.45949403569805941</v>
-      </c>
-      <c r="C8">
-        <v>3.9502120547768643E-3</v>
-      </c>
-      <c r="D8">
-        <v>7.5739003832259552E-2</v>
-      </c>
-      <c r="E8">
-        <v>9.4810211610756121E-4</v>
-      </c>
-      <c r="F8">
-        <v>3.5558773652050498E-6</v>
-      </c>
-      <c r="G8">
-        <v>0.45986509042143148</v>
-      </c>
-      <c r="H8">
-        <v>0.45986509042143148</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9">
-        <v>0.61836412605720692</v>
-      </c>
-      <c r="C9">
-        <v>1.2833239609007259E-5</v>
-      </c>
-      <c r="D9">
-        <v>1.43279947186078E-9</v>
-      </c>
-      <c r="E9">
-        <v>9.3139836105132856E-6</v>
-      </c>
-      <c r="F9">
-        <v>3.5395483123353902E-7</v>
-      </c>
-      <c r="G9">
-        <v>0.3816133713319429</v>
-      </c>
-      <c r="H9">
-        <v>0.61836412605720692</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10">
-        <v>0.67461863819776124</v>
-      </c>
-      <c r="C10">
-        <v>1.070765739450476E-5</v>
-      </c>
-      <c r="D10">
-        <v>6.4447980122478324E-5</v>
-      </c>
-      <c r="E10">
-        <v>1.5435430226466199E-3</v>
-      </c>
-      <c r="F10">
-        <v>1.129653663966973E-3</v>
-      </c>
-      <c r="G10">
-        <v>0.32263300947810808</v>
-      </c>
-      <c r="H10">
-        <v>0.67461863819776124</v>
-      </c>
-      <c r="I10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11">
-        <v>0.59310547204028141</v>
-      </c>
-      <c r="C11">
-        <v>9.0441045868427689E-8</v>
-      </c>
-      <c r="D11">
-        <v>6.1443807867831806E-6</v>
-      </c>
-      <c r="E11">
-        <v>1.6984864756130829E-4</v>
-      </c>
-      <c r="F11">
-        <v>3.4129827679131998E-4</v>
-      </c>
-      <c r="G11">
-        <v>0.40637714621353332</v>
-      </c>
-      <c r="H11">
-        <v>0.59310547204028141</v>
-      </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12">
-        <v>0.67180526370339078</v>
-      </c>
-      <c r="C12">
-        <v>4.2529860053709542E-7</v>
-      </c>
-      <c r="D12">
-        <v>6.4900489368964851E-9</v>
-      </c>
-      <c r="E12">
-        <v>5.5852034419832293E-5</v>
-      </c>
-      <c r="F12">
-        <v>1.4821636319061899E-5</v>
-      </c>
-      <c r="G12">
-        <v>0.3281236308372209</v>
-      </c>
-      <c r="H12">
-        <v>0.67180526370339078</v>
-      </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13">
-        <v>0.28315394301584251</v>
-      </c>
-      <c r="C13">
-        <v>1.321603500935837E-5</v>
-      </c>
-      <c r="D13">
-        <v>9.4100572272599924E-6</v>
-      </c>
-      <c r="E13">
-        <v>5.3123937614995664E-4</v>
-      </c>
-      <c r="F13">
-        <v>0.47972576295737768</v>
-      </c>
-      <c r="G13">
-        <v>0.23656642855839319</v>
-      </c>
-      <c r="H13">
-        <v>0.47972576295737768</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14">
-        <v>0.72904461093497497</v>
-      </c>
-      <c r="C14">
-        <v>4.1855235465205028E-4</v>
-      </c>
-      <c r="D14">
-        <v>1.9776195674159422E-6</v>
-      </c>
-      <c r="E14">
-        <v>4.8581987100465908E-5</v>
-      </c>
-      <c r="F14">
-        <v>1.3108887048729921E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.25737739005497517</v>
-      </c>
-      <c r="H14">
-        <v>0.72904461093497497</v>
-      </c>
-      <c r="I14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15">
-        <v>0.83532179681551277</v>
-      </c>
-      <c r="C15">
-        <v>2.771067505417387E-5</v>
-      </c>
-      <c r="D15">
-        <v>1.860528096442206E-7</v>
-      </c>
-      <c r="E15">
-        <v>4.0298641427852347E-5</v>
-      </c>
-      <c r="F15">
-        <v>4.7479229213384806E-6</v>
-      </c>
-      <c r="G15">
-        <v>0.16460525989227431</v>
-      </c>
-      <c r="H15">
-        <v>0.83532179681551277</v>
-      </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16">
-        <v>0.54529760465578303</v>
-      </c>
-      <c r="C16">
-        <v>4.8265553023162833E-5</v>
-      </c>
-      <c r="D16">
-        <v>1.8617214815554829E-4</v>
-      </c>
-      <c r="E16">
-        <v>7.7130021586932376E-4</v>
-      </c>
-      <c r="F16">
-        <v>1.788125684848504E-5</v>
-      </c>
-      <c r="G16">
-        <v>0.45367877617032049</v>
-      </c>
-      <c r="H16">
-        <v>0.54529760465578303</v>
-      </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17">
-        <v>0.36559561241577332</v>
-      </c>
-      <c r="C17">
-        <v>3.3227325089374899E-3</v>
-      </c>
-      <c r="D17">
-        <v>7.4093075695210162E-2</v>
-      </c>
-      <c r="E17">
-        <v>6.2561318687197626E-3</v>
-      </c>
-      <c r="F17">
-        <v>1.5410235446974231E-4</v>
-      </c>
-      <c r="G17">
-        <v>0.55057834515688953</v>
-      </c>
-      <c r="H17">
-        <v>0.55057834515688953</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18">
-        <v>0.50499317065524019</v>
-      </c>
-      <c r="C18">
-        <v>6.8299911222444374E-5</v>
-      </c>
-      <c r="D18">
-        <v>1.85083253173346E-3</v>
-      </c>
-      <c r="E18">
-        <v>8.0768419171518174E-4</v>
-      </c>
-      <c r="F18">
-        <v>4.4610565304888458E-4</v>
-      </c>
-      <c r="G18">
-        <v>0.49183390705703978</v>
-      </c>
-      <c r="H18">
-        <v>0.50499317065524019</v>
-      </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19">
-        <v>0.58152710776009975</v>
-      </c>
-      <c r="C19">
-        <v>3.1720191540027432E-3</v>
-      </c>
-      <c r="D19">
-        <v>0.19677412894604551</v>
-      </c>
-      <c r="E19">
-        <v>4.6406774332589992E-3</v>
-      </c>
-      <c r="F19">
-        <v>4.9733023537047738E-5</v>
-      </c>
-      <c r="G19">
-        <v>0.21383633368305591</v>
-      </c>
-      <c r="H19">
-        <v>0.58152710776009975</v>
-      </c>
-      <c r="I19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B20">
-        <v>0.3477908580454443</v>
-      </c>
-      <c r="C20">
-        <v>3.5168716547516438E-4</v>
-      </c>
-      <c r="D20">
-        <v>5.4962003982457837E-5</v>
-      </c>
-      <c r="E20">
-        <v>3.3823789505798429E-4</v>
-      </c>
-      <c r="F20">
-        <v>1.3187308559477541E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.63827694633056253</v>
-      </c>
-      <c r="H20">
-        <v>0.63827694633056253</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J20" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21">
-        <v>0.55720495682682047</v>
-      </c>
-      <c r="C21">
-        <v>2.383467772668843E-4</v>
-      </c>
-      <c r="D21">
-        <v>6.1725396922407319E-4</v>
-      </c>
-      <c r="E21">
-        <v>5.1108286886637473E-4</v>
-      </c>
-      <c r="F21">
-        <v>0.29389988560318758</v>
-      </c>
-      <c r="G21">
-        <v>0.1475284739546347</v>
-      </c>
-      <c r="H21">
-        <v>0.55720495682682047</v>
-      </c>
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22">
-        <v>0.80045373845278855</v>
-      </c>
-      <c r="C22">
-        <v>1.1171577191273651E-6</v>
-      </c>
-      <c r="D22">
-        <v>5.3257826086235674E-6</v>
-      </c>
-      <c r="E22">
-        <v>1.7920049714070471E-4</v>
-      </c>
-      <c r="F22">
-        <v>1.226658673256531E-2</v>
-      </c>
-      <c r="G22">
-        <v>0.1870940313771777</v>
-      </c>
-      <c r="H22">
-        <v>0.80045373845278855</v>
-      </c>
-      <c r="I22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23">
-        <v>0.59297012281514916</v>
-      </c>
-      <c r="C23">
-        <v>1.4595449710584949E-4</v>
-      </c>
-      <c r="D23">
-        <v>0.1291327397852223</v>
-      </c>
-      <c r="E23">
-        <v>8.0884954008217241E-3</v>
-      </c>
-      <c r="F23">
-        <v>2.989132753724155E-3</v>
-      </c>
-      <c r="G23">
-        <v>0.26667355474797672</v>
-      </c>
-      <c r="H23">
-        <v>0.59297012281514916</v>
-      </c>
-      <c r="I23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24">
-        <v>0.57945253748866643</v>
-      </c>
-      <c r="C24">
-        <v>3.1448842333005111E-4</v>
-      </c>
-      <c r="D24">
-        <v>1.127062697055716E-4</v>
-      </c>
-      <c r="E24">
-        <v>2.1080369066949389E-4</v>
-      </c>
-      <c r="F24">
-        <v>5.5488070968100368E-3</v>
-      </c>
-      <c r="G24">
-        <v>0.41436065703081848</v>
-      </c>
-      <c r="H24">
-        <v>0.57945253748866643</v>
-      </c>
-      <c r="I24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25">
-        <v>0.15350851579812111</v>
-      </c>
-      <c r="C25">
-        <v>1.226996494366378E-6</v>
-      </c>
-      <c r="D25">
-        <v>3.0296096395602149E-5</v>
-      </c>
-      <c r="E25">
-        <v>3.0872610549692619E-4</v>
-      </c>
-      <c r="F25">
-        <v>0.1068015002849167</v>
-      </c>
-      <c r="G25">
-        <v>0.73934973471857524</v>
-      </c>
-      <c r="H25">
-        <v>0.73934973471857524</v>
-      </c>
-      <c r="I25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B26">
-        <v>0.44011129040500158</v>
-      </c>
-      <c r="C26">
-        <v>6.6036093996594224E-4</v>
-      </c>
-      <c r="D26">
-        <v>2.1048801993760351E-2</v>
-      </c>
-      <c r="E26">
-        <v>8.2214609446061278E-4</v>
-      </c>
-      <c r="F26">
-        <v>2.728135626163247E-6</v>
-      </c>
-      <c r="G26">
-        <v>0.53735467243118529</v>
-      </c>
-      <c r="H26">
-        <v>0.53735467243118529</v>
-      </c>
-      <c r="I26" t="s">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B27">
-        <v>0.77098359980791509</v>
-      </c>
-      <c r="C27">
-        <v>3.9956364069023492E-5</v>
-      </c>
-      <c r="D27">
-        <v>6.5655279092271171E-8</v>
-      </c>
-      <c r="E27">
-        <v>2.5168604183040268E-4</v>
-      </c>
-      <c r="F27">
-        <v>4.8978401821334118E-5</v>
-      </c>
-      <c r="G27">
-        <v>0.22867571372908499</v>
-      </c>
-      <c r="H27">
-        <v>0.77098359980791509</v>
-      </c>
-      <c r="I27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B28">
-        <v>0.8260576602052262</v>
-      </c>
-      <c r="C28">
-        <v>5.1443094474889997E-5</v>
-      </c>
-      <c r="D28">
-        <v>1.217570639969568E-4</v>
-      </c>
-      <c r="E28">
-        <v>7.2891948072552625E-5</v>
-      </c>
-      <c r="F28">
-        <v>6.6079247982626802E-3</v>
-      </c>
-      <c r="G28">
-        <v>0.1670883228899667</v>
-      </c>
-      <c r="H28">
-        <v>0.8260576602052262</v>
-      </c>
-      <c r="I28" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29">
-        <v>0.81070142317998728</v>
-      </c>
-      <c r="C29">
-        <v>1.3558250337925289E-4</v>
-      </c>
-      <c r="D29">
-        <v>1.3575181306151401E-3</v>
-      </c>
-      <c r="E29">
-        <v>5.1242426316290134E-4</v>
-      </c>
-      <c r="F29">
-        <v>1.5050260687538011E-4</v>
-      </c>
-      <c r="G29">
-        <v>0.18714254931598001</v>
-      </c>
-      <c r="H29">
-        <v>0.81070142317998728</v>
-      </c>
-      <c r="I29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30">
-        <v>0.29445723391376788</v>
-      </c>
-      <c r="C30">
-        <v>6.4490839084839404E-3</v>
-      </c>
-      <c r="D30">
-        <v>4.9007350266938048E-6</v>
-      </c>
-      <c r="E30">
-        <v>6.5547918229123692E-3</v>
-      </c>
-      <c r="F30">
-        <v>0.20987841999268761</v>
-      </c>
-      <c r="G30">
-        <v>0.48265556962712147</v>
-      </c>
-      <c r="H30">
-        <v>0.48265556962712147</v>
-      </c>
-      <c r="I30" t="s">
-        <v>5</v>
-      </c>
-      <c r="J30" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31">
-        <v>1.2121312646791499E-2</v>
-      </c>
-      <c r="C31">
-        <v>2.6491047920619467E-4</v>
-      </c>
-      <c r="D31">
-        <v>0.97065545339003312</v>
-      </c>
-      <c r="E31">
-        <v>5.7511427090164313E-5</v>
-      </c>
-      <c r="F31">
-        <v>6.8171902344283191E-5</v>
-      </c>
-      <c r="G31">
-        <v>1.6832640154534721E-2</v>
-      </c>
-      <c r="H31">
-        <v>0.97065545339003312</v>
-      </c>
-      <c r="I31" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32">
-        <v>0.22656978044018511</v>
-      </c>
-      <c r="C32">
-        <v>3.702642955274395E-6</v>
-      </c>
-      <c r="D32">
-        <v>6.0084820324630167E-2</v>
-      </c>
-      <c r="E32">
-        <v>2.258867703772109E-4</v>
-      </c>
-      <c r="F32">
-        <v>4.5131180270008937E-3</v>
-      </c>
-      <c r="G32">
-        <v>0.70860269179485136</v>
-      </c>
-      <c r="H32">
-        <v>0.70860269179485136</v>
-      </c>
-      <c r="I32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33">
-        <v>0.39832937722265571</v>
-      </c>
-      <c r="C33">
-        <v>3.9745749864807536E-6</v>
-      </c>
-      <c r="D33">
-        <v>5.1040354796053018E-6</v>
-      </c>
-      <c r="E33">
-        <v>1.1594048314780331E-3</v>
-      </c>
-      <c r="F33">
-        <v>1.7911091557380049E-6</v>
-      </c>
-      <c r="G33">
-        <v>0.60050034822624432</v>
-      </c>
-      <c r="H33">
-        <v>0.60050034822624432</v>
-      </c>
-      <c r="I33" t="s">
-        <v>5</v>
-      </c>
-      <c r="J33" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34">
-        <v>0.46558300552967219</v>
-      </c>
-      <c r="C34">
-        <v>1.139090495998097E-4</v>
-      </c>
-      <c r="D34">
-        <v>9.5602360153714868E-3</v>
-      </c>
-      <c r="E34">
-        <v>2.6733986983095462E-4</v>
-      </c>
-      <c r="F34">
-        <v>7.7287863092794765E-5</v>
-      </c>
-      <c r="G34">
-        <v>0.52439822167243266</v>
-      </c>
-      <c r="H34">
-        <v>0.52439822167243266</v>
-      </c>
-      <c r="I34" t="s">
-        <v>5</v>
-      </c>
-      <c r="J34" t="s">
-        <v>703</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H132"/>
